--- a/data/dataDriven/articlePageTestCase.xlsx
+++ b/data/dataDriven/articlePageTestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="9390" windowWidth="20385"/>
+    <workbookView activeTab="1" windowHeight="9924" windowWidth="22368"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" r:id="rId1" sheetId="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="0">
   <si>
     <t>用例编号</t>
   </si>
@@ -32,6 +32,9 @@
     <t>发布评论流程</t>
   </si>
   <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>步骤编号</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
     <t>预期结果</t>
   </si>
   <si>
+    <t>步骤截图</t>
+  </si>
+  <si>
     <t>s_001</t>
   </si>
   <si>
@@ -62,6 +68,9 @@
     <t>commentBut</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>s_002</t>
   </si>
   <si>
@@ -101,7 +110,7 @@
     <t>评论成功</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>截图</t>
   </si>
 </sst>
 </file>
@@ -114,7 +123,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +132,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -131,7 +147,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,7 +184,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,47 +199,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,6 +229,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -224,6 +247,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,34 +283,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
   </fonts>
   <fills count="33">
@@ -282,6 +316,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -294,31 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,133 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,32 +519,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,7 +552,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,15 +601,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -575,10 +609,10 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="18" fontId="8" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="22" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -587,140 +621,145 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="3" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="4" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="32" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="26" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="17" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="17" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="12" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="4" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="29" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="29" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="9" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1071,15 +1110,15 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5583333333333" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.4416666666667" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5555555555556" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.4444444444444" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1093,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1101,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1114,125 +1153,150 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.8796296296296" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="18.25" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="8.875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.1296296296296" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="8.87962962962963" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
+      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s" s="5">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink display="截图" r:id="rId1" ref="I5"/>
+    <hyperlink r:id="rId2" ref="I5"/>
+    <hyperlink r:id="rId3" ref="I5"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
